--- a/biology/Botanique/Evolvulus_alsinoides/Evolvulus_alsinoides.xlsx
+++ b/biology/Botanique/Evolvulus_alsinoides/Evolvulus_alsinoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evolvulus alsinoides est une espèce de plantes dicotylédones de la famille des Convolvulaceae, à répartition pantropicale, probablement d'origine américaine. C'est une plante herbacée, annuelle ou vivace, aux tiges élancées plus ou moins ramifiées, à fleurs bleues. La plante entière a des applications médicinales chez différents peuples des régions tropicales, notamment en Inde où elle est connue sous le nom de Vishnukrantha et participe à la médecine ayurvédique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evolvulus alsinoides est une espèce de plantes dicotylédones de la famille des Convolvulaceae, à répartition pantropicale, probablement d'origine américaine. C'est une plante herbacée, annuelle ou vivace, aux tiges élancées plus ou moins ramifiées, à fleurs bleues. La plante entière a des applications médicinales chez différents peuples des régions tropicales, notamment en Inde où elle est connue sous le nom de Vishnukrantha et participe à la médecine ayurvédique.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evolvulus alsinoidesest une plante herbacée annuelle ou vivace, à tiges plus ou moins nombreuses, prostrées ou ascendantes, élancées, à poils apprimés et étalés. Les feuilles, pétiolées ou subsessiles, ont 0,7 à 2,5 cm de long sur 5 à 10 mm de long[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evolvulus alsinoidesest une plante herbacée annuelle ou vivace, à tiges plus ou moins nombreuses, prostrées ou ascendantes, élancées, à poils apprimés et étalés. Les feuilles, pétiolées ou subsessiles, ont 0,7 à 2,5 cm de long sur 5 à 10 mm de long.
 Les fleurs sont isolées ou groupées en cymes pauciflores, portées par des pédoncules filiformes, de 2,5 à 3,5 cm de long.
 Le calice est formé de sépales villeux, lancéolés, de 3 à 4 mm de long. La corolle arrondie, à symétrie pentamère, de couleur bleue, rarement blanche, a 7 à 10 mm de diamètre. Les étamines, aux filaments filiformes, sont soudées à la base du tube de la corolle. L'ovaire, glabre, est surmonté de 2 styles libres.
-Le fruit est une capsule globuleuse, à 4 valves, contenant en général 4 graines 4, noires, lisses[3].
+Le fruit est une capsule globuleuse, à 4 valves, contenant en général 4 graines 4, noires, lisses.
 </t>
         </is>
       </c>
@@ -545,11 +559,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite initialement par Linné sous le nom de Convolvulus alsinoides et  publié en 1753 dans son Species plantarum 1: 157 (1753)[4]. Le même Linné l'a ensuite transférée dans le genre Evolvulus en 1762 (Evolvulus alsinoides (L.) L., Sp. Pl., ed. 2. 1: 392)[5]
-Synonymes
-Selon The Plant List            (25 janvier 2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite initialement par Linné sous le nom de Convolvulus alsinoides et  publié en 1753 dans son Species plantarum 1: 157 (1753). Le même Linné l'a ensuite transférée dans le genre Evolvulus en 1762 (Evolvulus alsinoides (L.) L., Sp. Pl., ed. 2. 1: 392)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Evolvulus_alsinoides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Evolvulus_alsinoides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (25 janvier 2020) :
 Convolvulus alsinoides L. (basionyme)
 Convolvulus linifolius L.
 Convolvulus valerianoides Blanco
@@ -559,9 +610,43 @@
 Evolvulus filiformis Willd. ex Steud.
 Evolvulus hirsutulus Choisy
 Evolvulus pilosissimus M. Martens &amp; Galeotti
-Evolvulus ramiflorus Boj. ex Choisy in DC
-Liste des variétés
-Selon The Plant List            (25 janvier 2020)[1] :
+Evolvulus ramiflorus Boj. ex Choisy in DC</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Evolvulus_alsinoides</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Evolvulus_alsinoides</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (25 janvier 2020) :
 Evolvulus alsinoides var. adscendens (House) Ooststr.
 Evolvulus alsinoides var. angustifolia Torr.
 Evolvulus alsinoides var. decumbens (R. Br.) Ooststr.
